--- a/271025_Results_Med/output/m3/27102025_mod3_by_travel_mode.xlsx
+++ b/271025_Results_Med/output/m3/27102025_mod3_by_travel_mode.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>5 (35.7%)</t>
+          <t>5 (29.4%)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>19 (24.7%)</t>
+          <t>19 (24.4%)</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>26 (72.2%)</t>
+          <t>26 (55.3%)</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>72 (48.0%)</t>
+          <t>72 (41.4%)</t>
         </is>
       </c>
       <c r="I132">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2 (14.3%)</t>
+          <t>2 (11.8%)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6332,12 +6332,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>1 (2.8%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>7 (4.7%)</t>
+          <t>7 (4.0%)</t>
         </is>
       </c>
       <c r="I133">
@@ -6357,32 +6357,32 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Caminar</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>7 (50.0%)</t>
+          <t>3 (17.6%)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>55 (71.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>5 (13.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>38 (25.3%)</t>
+          <t>5 (2.9%)</t>
         </is>
       </c>
       <c r="I134">
@@ -6402,32 +6402,32 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (41.2%)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1 (1.3%)</t>
+          <t>55 (70.5%)</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>1 (2.8%)</t>
+          <t>5 (10.6%)</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2 (1.3%)</t>
+          <t>38 (21.8%)</t>
         </is>
       </c>
       <c r="I135">
@@ -6447,12 +6447,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6467,12 +6467,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>3 (8.3%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>31 (20.7%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="I136">
@@ -6482,17 +6482,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Condiciones físicas / salud</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6507,42 +6507,42 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1 (4.3%)</t>
+          <t>1 (1.3%)</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2 (13.3%)</t>
+          <t>11 (23.4%)</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>3 (2.9%)</t>
+          <t>19 (10.9%)</t>
         </is>
       </c>
       <c r="I137">
-        <v>0.3281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Inseguridad / acoso</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1 (33.3%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6552,21 +6552,21 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1 (4.3%)</t>
+          <t>1 (1.3%)</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>1 (6.7%)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>5 (4.9%)</t>
+          <t>31 (17.8%)</t>
         </is>
       </c>
       <c r="I138">
-        <v>0.3281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -6582,36 +6582,36 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Limitaciones económicas</t>
+          <t>Condiciones físicas / salud</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2 (66.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>6 (75.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>15 (65.2%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>11 (73.3%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>81 (79.4%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="I139">
-        <v>0.3281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Tiempo / disponibilidad</t>
+          <t>Falta de infraestructura / distancia</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6637,47 +6637,47 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2 (25.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>6 (26.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>1 (6.7%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>13 (12.7%)</t>
+          <t>5 (2.2%)</t>
         </is>
       </c>
       <c r="I140">
-        <v>0.3281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Otra fuente</t>
+          <t>Inseguridad / acoso</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6687,352 +6687,352 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1 (2.3%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>1 (3.8%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>3 (2.6%)</t>
+          <t>9 (4.0%)</t>
         </is>
       </c>
       <c r="I141">
-        <v>0.9647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vehículos motorizados</t>
+          <t>Limitaciones económicas</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>7 (100.0%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>8 (100.0%)</t>
+          <t>6 (33.3%)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>42 (97.7%)</t>
+          <t>15 (17.4%)</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>25 (96.2%)</t>
+          <t>11 (23.4%)</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>111 (97.4%)</t>
+          <t>81 (35.8%)</t>
         </is>
       </c>
       <c r="I142">
-        <v>0.9647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Modo actual</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>16 (76.2%)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>2 (13.3%)</t>
+          <t>5 (27.8%)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>11 (16.4%)</t>
+          <t>55 (64.0%)</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>9 (30.0%)</t>
+          <t>17 (36.2%)</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>58 (31.2%)</t>
+          <t>63 (27.9%)</t>
         </is>
       </c>
       <c r="I143">
-        <v>0.1325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Camión</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (27.8%)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>8 (9.3%)</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>1 (3.3%)</t>
+          <t>14 (29.8%)</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>52 (23.0%)</t>
         </is>
       </c>
       <c r="I144">
-        <v>0.1325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Tiempo / disponibilidad</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1 (6.7%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>8 (11.9%)</t>
+          <t>6 (7.0%)</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>1 (3.3%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>12 (6.5%)</t>
+          <t>13 (5.8%)</t>
         </is>
       </c>
       <c r="I145">
-        <v>0.1325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Industria/Obras</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>9 (42.9%)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>2 (13.3%)</t>
+          <t>4 (22.2%)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>25 (29.1%)</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>1 (3.3%)</t>
+          <t>8 (17.0%)</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>10 (5.4%)</t>
+          <t>51 (22.6%)</t>
         </is>
       </c>
       <c r="I146">
-        <v>0.1325</v>
+        <v>0.4171</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otra fuente</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>10 (58.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>10 (66.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>44 (65.7%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>18 (60.0%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>104 (55.9%)</t>
+          <t>6 (2.7%)</t>
         </is>
       </c>
       <c r="I147">
-        <v>0.1325</v>
+        <v>0.4171</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Condiciones climáticas</t>
+          <t>Productos químicos</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2 (10.0%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>3 (17.6%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>9 (11.1%)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>3 (6.7%)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>16 (7.6%)</t>
+          <t>16 (7.1%)</t>
         </is>
       </c>
       <c r="I148">
-        <v>0.0226</v>
+        <v>0.4171</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Quema de residuos</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7042,657 +7042,1090 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>7 (41.2%)</t>
+          <t>3 (16.7%)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>13 (16.0%)</t>
+          <t>3 (3.5%)</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>4 (8.9%)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>21 (10.0%)</t>
+          <t>7 (3.1%)</t>
         </is>
       </c>
       <c r="I149">
-        <v>0.0226</v>
+        <v>0.4171</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Falta de información</t>
+          <t>Vehículos motorizados</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2 (10.0%)</t>
+          <t>7 (33.3%)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>8 (44.4%)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>5 (6.2%)</t>
+          <t>42 (48.8%)</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>5 (11.1%)</t>
+          <t>25 (53.2%)</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>37 (17.6%)</t>
+          <t>111 (49.1%)</t>
         </is>
       </c>
       <c r="I150">
-        <v>0.0226</v>
+        <v>0.4171</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Falta de infraestructura</t>
+          <t>Vertederos (basureros) y rellenos sanitarios</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>6 (30.0%)</t>
+          <t>3 (14.3%)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>17 (21.0%)</t>
+          <t>11 (12.8%)</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>12 (26.7%)</t>
+          <t>6 (12.8%)</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>38 (18.1%)</t>
+          <t>35 (15.5%)</t>
         </is>
       </c>
       <c r="I151">
-        <v>0.0226</v>
+        <v>0.4171</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Inseguridad / violencia</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>8 (40.0%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>5 (29.4%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>33 (40.7%)</t>
+          <t>11 (12.8%)</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>20 (44.4%)</t>
+          <t>9 (19.1%)</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>87 (41.4%)</t>
+          <t>58 (25.8%)</t>
         </is>
       </c>
       <c r="I152">
-        <v>0.0226</v>
+        <v>0.1015</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Camión</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2 (10.0%)</t>
+          <t>6 (28.6%)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (16.7%)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>4 (4.9%)</t>
+          <t>21 (24.4%)</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>1 (2.2%)</t>
+          <t>18 (38.3%)</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>41 (18.2%)</t>
         </is>
       </c>
       <c r="I153">
-        <v>0.0226</v>
+        <v>0.1015</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Importancia del costo de compra</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>5.0 (3.8–5.0)</t>
+          <t>8 (9.3%)</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (5.3%)</t>
         </is>
       </c>
       <c r="I154">
-        <v>0.8077</v>
+        <v>0.1015</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Importancia del costo de uso u operación</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Otro modo</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>4.0 (3.5–5.0)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>10 (4.4%)</t>
         </is>
       </c>
       <c r="I155">
-        <v>0.4208</v>
+        <v>0.1015</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Importancia de la comodidad</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>10 (47.6%)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>10 (55.6%)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>44 (51.2%)</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>18 (38.3%)</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>104 (46.2%)</t>
         </is>
       </c>
       <c r="I156">
-        <v>0.2872</v>
+        <v>0.1015</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Importancia del tiempo de viaje</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Condiciones climáticas</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>5.0 (4.8–5.0)</t>
+          <t>3 (16.7%)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>9 (10.5%)</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>16 (7.1%)</t>
         </is>
       </c>
       <c r="I157">
-        <v>0.4384</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_robo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de robo o atraco</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>5.0 (4.2–5.0)</t>
+          <t>7 (38.9%)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>13 (15.1%)</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (8.5%)</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>21 (9.3%)</t>
         </is>
       </c>
       <c r="I158">
-        <v>0.651</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_acoso</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de acoso</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Falta de información</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>5 (5.8%)</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5 (10.6%)</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>37 (16.4%)</t>
         </is>
       </c>
       <c r="I159">
-        <v>0.1283</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>p28_importancia_discriminacion</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de discriminación</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Falta de infraestructura</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>5.0 (3.2–5.0)</t>
+          <t>7 (33.3%)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>22 (25.6%)</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>14 (29.8%)</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>54 (23.9%)</t>
         </is>
       </c>
       <c r="I160">
-        <v>0.3699</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Importancia del nivel de emisiones</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Inseguridad / violencia</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>8 (38.1%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5 (27.8%)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>33 (38.4%)</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>20 (42.6%)</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>87 (38.5%)</t>
         </is>
       </c>
       <c r="I161">
-        <v>0.1222</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Importancia de la siniestralidad vial</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>4.0 (4.0–5.0)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>11 (4.9%)</t>
         </is>
       </c>
       <c r="I162">
-        <v>0.7204</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nivel percibido de contaminación (escala Likert)</t>
-        </is>
+          <t>Importancia del costo de compra</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>5.0 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.5 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I163">
+        <v>0.5464</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+          <t>Importancia del costo de uso u operación</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2.5 (2.0–3.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–3.8)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.5 (3.0–5.0)</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>3.0 (2.5–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="I164">
-        <v>0.5352</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>p28_importancia_comodidad</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Importancia de la comodidad</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>4.5 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I165">
+        <v>0.0454</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>p28_importancia_tiempo</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Importancia del tiempo de viaje</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>5.0 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.0 (4.2–5.0)</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I166">
+        <v>0.5492</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_robo</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de robo o atraco</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>5.0 (4.2–5.0)</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.5 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I167">
+        <v>0.4119</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_acoso</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de acoso</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>5.0 (1.8–5.0)</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>4.0 (2.5–5.0)</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I168">
+        <v>0.5327</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>p28_importancia_discriminacion</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de discriminación</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.0 (1.2–5.0)</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>4.0 (1.5–5.0)</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I169">
+        <v>0.8741</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>p28_importancia_emisiones</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Importancia del nivel de emisiones</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>3.5 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>4.0 (2.2–5.0)</t>
+        </is>
+      </c>
+      <c r="I170">
+        <v>0.8134</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>p28_importancia_siniestralidad</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Importancia de la siniestralidad vial</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>4.5 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I171">
+        <v>0.3572</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>p32_contaminacion_likert</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Nivel percibido de contaminación (escala Likert)</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–3.0)</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>p36_influencia_amigos</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2.5 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–3.8)</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>3.0 (2.5–4.0)</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="I173">
+        <v>0.5352</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
           <t>p37_influencia_familia</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Influencia de la familia en la elección del transporte (Likert 1-5)</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>3.0 (2.8–3.0)</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>4.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>3.0 (2.0–4.0)</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>3.5 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="I165">
+      <c r="I174">
         <v>0.0745</v>
       </c>
     </row>

--- a/271025_Results_Med/output/m3/27102025_mod3_by_travel_mode.xlsx
+++ b/271025_Results_Med/output/m3/27102025_mod3_by_travel_mode.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +432,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1 (2.9%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -442,11 +442,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3 (2.3%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="I2">
-        <v>0.6062</v>
+        <v>0.008500000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1 (8.3%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -482,16 +482,16 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4 (13.8%)</t>
+          <t>4 (8.5%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11 (8.3%)</t>
+          <t>11 (4.9%)</t>
         </is>
       </c>
       <c r="I3">
-        <v>0.6062</v>
+        <v>0.008500000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -512,121 +512,121 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7 (100.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11 (91.7%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>34 (97.1%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25 (86.2%)</t>
+          <t>5 (10.6%)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>119 (89.5%)</t>
+          <t>14 (6.2%)</t>
         </is>
       </c>
       <c r="I4">
-        <v>0.6062</v>
+        <v>0.008500000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>p25_razones_agregadas</t>
+          <t>p24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Razones agregadas de elección del modo de transporte</t>
+          <t>Nivel de satisfacción con el modo principal de transporte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Condiciones de salud propias o de un familiar</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (33.3%)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>11 (61.1%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>34 (39.5%)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>25 (53.2%)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>119 (52.7%)</t>
         </is>
       </c>
       <c r="I5">
-        <v>0.0008</v>
+        <v>0.008500000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>p25_razones_agregadas</t>
+          <t>p24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Razones agregadas de elección del modo de transporte</t>
+          <t>Nivel de satisfacción con el modo principal de transporte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Condiciones de salud propias o de un familiar, La comodidad (confort)</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (61.9%)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (22.2%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>50 (58.1%)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3 (6.4%)</t>
+          <t>13 (27.7%)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>79 (35.0%)</t>
         </is>
       </c>
       <c r="I6">
-        <v>0.0008</v>
+        <v>0.008500000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -642,32 +642,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2 (11.1%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8 (9.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5 (10.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>33 (14.6%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I7">
@@ -687,7 +687,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Condiciones de salud propias o de un familiar</t>
+          <t>Condiciones de salud propias o de un familiar, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -707,12 +707,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I8">
@@ -732,32 +732,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), El tiempo de viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4 (4.7%)</t>
+          <t>8 (9.3%)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>5 (10.6%)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15 (6.6%)</t>
+          <t>33 (14.6%)</t>
         </is>
       </c>
       <c r="I9">
@@ -777,7 +777,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La autonomía o control sobre el viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -822,32 +822,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La comodidad (confort)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), El tiempo de viaje</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5 (5.8%)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2 (4.3%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10 (4.4%)</t>
+          <t>15 (6.6%)</t>
         </is>
       </c>
       <c r="I11">
@@ -867,7 +867,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La distancia que debe recorrer</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3 (3.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11 (4.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I12">
@@ -912,32 +912,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La percepción de seguridad</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La comodidad (confort)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2 (2.3%)</t>
+          <t>5 (5.8%)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>8 (3.5%)</t>
+          <t>10 (4.4%)</t>
         </is>
       </c>
       <c r="I13">
@@ -957,7 +957,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Otro</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -967,22 +967,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (3.5%)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>11 (4.9%)</t>
         </is>
       </c>
       <c r="I14">
@@ -1002,22 +1002,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Por razones medioambientales (consciencia ambiental)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La percepción de seguridad</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>8 (3.5%)</t>
         </is>
       </c>
       <c r="I15">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Otro</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I16">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>El tiempo de viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6 (7.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3 (6.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21 (9.3%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I17">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4 (4.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>8 (3.5%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I18">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La autonomía o control sobre el viaje</t>
+          <t>El tiempo de viaje</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1197,17 +1197,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>6 (7.0%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>21 (9.3%)</t>
         </is>
       </c>
       <c r="I19">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La comodidad (confort)</t>
+          <t>El tiempo de viaje, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2 (2.3%)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4 (1.8%)</t>
+          <t>8 (3.5%)</t>
         </is>
       </c>
       <c r="I20">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La distancia que debe recorrer</t>
+          <t>El tiempo de viaje, La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3 (3.5%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1317,12 +1317,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La percepción de seguridad</t>
+          <t>El tiempo de viaje, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1332,17 +1332,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>4 (1.8%)</t>
         </is>
       </c>
       <c r="I22">
@@ -1362,12 +1362,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, Otro</t>
+          <t>El tiempo de viaje, La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1377,12 +1377,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (3.5%)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, Por razones medioambientales (consciencia ambiental)</t>
+          <t>El tiempo de viaje, La percepción de seguridad</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1452,12 +1452,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje</t>
+          <t>El tiempo de viaje, Otro</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3 (3.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje, El tiempo de viaje</t>
+          <t>El tiempo de viaje, Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I26">
@@ -1542,12 +1542,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje, Otro</t>
+          <t>La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1557,17 +1557,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (3.5%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I27">
@@ -1587,32 +1587,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>La comodidad (confort)</t>
+          <t>La autonomía o control sobre el viaje, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3 (14.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4 (22.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>17 (19.8%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5 (10.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>32 (14.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I28">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Condiciones de salud propias o de un familiar</t>
+          <t>La autonomía o control sobre el viaje, Otro</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1677,32 +1677,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>La comodidad (confort), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La comodidad (confort)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>3 (14.3%)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (22.2%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2 (2.3%)</t>
+          <t>17 (19.8%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>5 (10.6%)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>9 (4.0%)</t>
+          <t>32 (14.2%)</t>
         </is>
       </c>
       <c r="I30">
@@ -1722,32 +1722,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>La comodidad (confort), El tiempo de viaje</t>
+          <t>La comodidad (confort), Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>6 (7.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5 (10.6%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10 (4.4%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I31">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La autonomía o control sobre el viaje</t>
+          <t>La comodidad (confort), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1782,17 +1782,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>9 (4.0%)</t>
         </is>
       </c>
       <c r="I32">
@@ -1812,12 +1812,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La distancia que debe recorrer</t>
+          <t>La comodidad (confort), El tiempo de viaje</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4 (4.7%)</t>
+          <t>6 (7.0%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3 (6.4%)</t>
+          <t>5 (10.6%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>7 (3.1%)</t>
+          <t>10 (4.4%)</t>
         </is>
       </c>
       <c r="I33">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La percepción de seguridad</t>
+          <t>La comodidad (confort), La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>4 (1.8%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I34">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Otro</t>
+          <t>La comodidad (confort), La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1912,22 +1912,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>7 (3.1%)</t>
         </is>
       </c>
       <c r="I35">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Por razones medioambientales (consciencia ambiental)</t>
+          <t>La comodidad (confort), La percepción de seguridad</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (1.8%)</t>
         </is>
       </c>
       <c r="I36">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>La comodidad (confort), Otro</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2012,12 +2012,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I37">
@@ -2037,32 +2037,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer</t>
+          <t>La comodidad (confort), Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3 (3.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>12 (5.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I38">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, Condiciones de salud propias o de un familiar</t>
+          <t>La comodidad (confort), Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I39">
@@ -2127,12 +2127,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2142,17 +2142,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>3 (3.5%)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>12 (5.3%)</t>
         </is>
       </c>
       <c r="I40">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, El tiempo de viaje</t>
+          <t>La distancia que debe recorrer, Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2 (2.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I41">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, La comodidad (confort)</t>
+          <t>La distancia que debe recorrer, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I42">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, Por razones medioambientales (consciencia ambiental)</t>
+          <t>La distancia que debe recorrer, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="I43">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>La percepción de seguridad</t>
+          <t>La distancia que debe recorrer, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I44">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, Condiciones de salud propias o de un familiar</t>
+          <t>La distancia que debe recorrer, Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I45">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La percepción de seguridad</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I46">
@@ -2442,12 +2442,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, El tiempo de viaje</t>
+          <t>La percepción de seguridad, Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2457,12 +2457,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, La comodidad (confort)</t>
+          <t>La percepción de seguridad, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2497,22 +2497,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4 (8.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="I48">
@@ -2532,22 +2532,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, La distancia que debe recorrer</t>
+          <t>La percepción de seguridad, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I49">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>La percepción de seguridad, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>4 (8.5%)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2622,17 +2622,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Por razones medioambientales (consciencia ambiental)</t>
+          <t>La percepción de seguridad, La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>5 (2.2%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I51">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Por razones medioambientales (consciencia ambiental), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2687,12 +2687,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I52">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>5 (2.2%)</t>
         </is>
       </c>
       <c r="I53">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Restricciones de circulación (Ejemplo: pico y placa), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Por razones medioambientales (consciencia ambiental), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I54">
@@ -2792,17 +2792,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>p26_agregado</t>
+          <t>p25_razones_agregadas</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Aspectos negativos principales del modo de transporte</t>
+          <t>Razones agregadas de elección del modo de transporte</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Costo económico</t>
+          <t>Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2817,37 +2817,37 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>13 (5.8%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>p26_agregado</t>
+          <t>p25_razones_agregadas</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Aspectos negativos principales del modo de transporte</t>
+          <t>Razones agregadas de elección del modo de transporte</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Falta de autonomía / control</t>
+          <t>Restricciones de circulación (Ejemplo: pico y placa), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2862,21 +2862,21 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="57">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Impacto ambiental</t>
+          <t>Costo económico</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>13 (5.8%)</t>
         </is>
       </c>
       <c r="I57">
@@ -2937,32 +2937,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Incomodidad / clima</t>
+          <t>Falta de autonomía / control</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>9 (50.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>41 (47.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4 (8.5%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>66 (29.2%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I58">
@@ -2982,32 +2982,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Inseguridad personal</t>
+          <t>Impacto ambiental</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3 (3.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6 (12.8%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>12 (5.3%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="I59">
@@ -3027,32 +3027,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nada le disgusta</t>
+          <t>Incomodidad / clima</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8 (38.1%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2 (11.1%)</t>
+          <t>9 (50.0%)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>16 (18.6%)</t>
+          <t>41 (47.7%)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>17 (36.2%)</t>
+          <t>4 (8.5%)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>65 (28.8%)</t>
+          <t>66 (29.2%)</t>
         </is>
       </c>
       <c r="I60">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Inseguridad personal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>3 (3.5%)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2 (4.3%)</t>
+          <t>6 (12.8%)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10 (4.4%)</t>
+          <t>12 (5.3%)</t>
         </is>
       </c>
       <c r="I61">
@@ -3117,17 +3117,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Riesgo de accidente</t>
+          <t>Nada le disgusta</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4 (19.0%)</t>
+          <t>8 (38.1%)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3137,12 +3137,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>4 (8.5%)</t>
+          <t>17 (36.2%)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>65 (28.8%)</t>
         </is>
       </c>
       <c r="I62">
@@ -3162,12 +3162,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sin respuesta</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3182,12 +3182,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>10 (4.4%)</t>
         </is>
       </c>
       <c r="I63">
@@ -3207,32 +3207,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Tiempo de viaje / espera</t>
+          <t>Riesgo de accidente</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5 (23.8%)</t>
+          <t>4 (19.0%)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4 (22.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>8 (9.3%)</t>
+          <t>16 (18.6%)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10 (21.3%)</t>
+          <t>4 (8.5%)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>51 (22.6%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="I64">
@@ -3242,22 +3242,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>p27_situaciones_multiples</t>
+          <t>p26_agregado</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Situaciones múltiples que se buscó evitar</t>
+          <t>Aspectos negativos principales del modo de transporte</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Congestión de tráfico</t>
+          <t>Sin respuesta</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3 (14.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3267,66 +3267,66 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>19 (22.1%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4 (8.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>36 (15.9%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I65">
-        <v>0.0188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>p27_situaciones_multiples</t>
+          <t>p26_agregado</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Situaciones múltiples que se buscó evitar</t>
+          <t>Aspectos negativos principales del modo de transporte</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Costos altos</t>
+          <t>Tiempo de viaje / espera</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (23.8%)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (22.2%)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (9.3%)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (21.3%)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>4 (1.8%)</t>
+          <t>51 (22.6%)</t>
         </is>
       </c>
       <c r="I66">
-        <v>0.0188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3342,32 +3342,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Dificultad para encontrar parqueadero</t>
+          <t>Congestión de tráfico</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (14.3%)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>19 (22.1%)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (8.5%)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>36 (15.9%)</t>
         </is>
       </c>
       <c r="I67">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Esfuerzo físico agotador</t>
+          <t>Congestión de tráfico, Costos altos</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>4 (1.8%)</t>
         </is>
       </c>
       <c r="I68">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Congestión de tráfico, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I69">
@@ -3477,12 +3477,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Multitud de personas</t>
+          <t>Congestión de tráfico, Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3492,17 +3492,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>3 (3.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>6 (2.7%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I70">
@@ -3522,12 +3522,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Ser víctima de robo o atraco</t>
+          <t>Congestión de tráfico, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3542,12 +3542,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I71">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Tiempos de espera largos o inciertos</t>
+          <t>Congestión de tráfico, Multitud de personas</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>6 (2.7%)</t>
         </is>
       </c>
       <c r="I72">
@@ -3612,12 +3612,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Tiempos de viaje largos o inciertos</t>
+          <t>Congestión de tráfico, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3627,12 +3627,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2 (2.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Congestión de tráfico, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3677,12 +3677,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>12 (5.3%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="I74">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Costos altos, Congestión de tráfico</t>
+          <t>Congestión de tráfico, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I75">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Costos altos, Dificultad para encontrar parqueadero</t>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3757,22 +3757,22 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (3.5%)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>12 (5.3%)</t>
         </is>
       </c>
       <c r="I76">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Costos altos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Costos altos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3807,12 +3807,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3837,12 +3837,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Costos altos, Multitud de personas</t>
+          <t>Costos altos, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I78">
@@ -3882,17 +3882,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Costos altos, Ser víctima de robo o atraco</t>
+          <t>Costos altos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I79">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Costos altos, Tiempos de espera largos o inciertos</t>
+          <t>Costos altos, Multitud de personas</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I80">
@@ -3972,17 +3972,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Costos altos, Tiempos de viaje largos o inciertos</t>
+          <t>Costos altos, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero</t>
+          <t>Costos altos, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2 (2.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero, Ser víctima de robo o atraco</t>
+          <t>Costos altos, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I83">
@@ -4107,12 +4107,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero, Tiempos de viaje largos o inciertos</t>
+          <t>Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I84">
@@ -4152,12 +4152,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador</t>
+          <t>Dificultad para encontrar parqueadero, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4167,17 +4167,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I85">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador, Dificultad para encontrar parqueadero</t>
+          <t>Dificultad para encontrar parqueadero, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I86">
@@ -4242,12 +4242,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador, Multitud de personas</t>
+          <t>Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I87">
@@ -4287,32 +4287,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Esfuerzo físico agotador, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3 (14.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3 (16.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>9 (10.5%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>4 (8.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>17 (7.5%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I88">
@@ -4332,32 +4332,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Congestión de tráfico</t>
+          <t>Esfuerzo físico agotador, Multitud de personas</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2 (2.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2 (4.3%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>6 (2.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I89">
@@ -4377,32 +4377,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Costos altos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (14.3%)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (16.7%)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (10.5%)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (8.5%)</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>17 (7.5%)</t>
         </is>
       </c>
       <c r="I90">
@@ -4422,32 +4422,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Esfuerzo físico agotador</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Congestión de tráfico</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2 (11.1%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (2.7%)</t>
         </is>
       </c>
       <c r="I91">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Multitud de personas</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Costos altos</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>5 (2.2%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I92">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de robo o atraco</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I93">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de situaciones de acoso o violencia</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Multitud de personas</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>5 (2.2%)</t>
         </is>
       </c>
       <c r="I94">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de espera largos o inciertos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4612,22 +4612,22 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2 (2.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I95">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de viaje largos o inciertos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4662,17 +4662,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I96">
@@ -4692,12 +4692,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Multitud de personas</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4712,12 +4712,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>5 (10.6%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>21 (9.3%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="I97">
@@ -4737,12 +4737,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Multitud de personas, Congestión de tráfico</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4782,12 +4782,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Multitud de personas, Costos altos</t>
+          <t>Multitud de personas</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4797,17 +4797,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (10.6%)</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>21 (9.3%)</t>
         </is>
       </c>
       <c r="I99">
@@ -4827,12 +4827,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Multitud de personas, Esfuerzo físico agotador</t>
+          <t>Multitud de personas, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4842,17 +4842,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="I100">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Multitud de personas, Ser víctima de robo o atraco</t>
+          <t>Multitud de personas, Costos altos</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>4 (1.8%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I101">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Multitud de personas, Ser víctima de situaciones de acoso o violencia</t>
+          <t>Multitud de personas, Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4937,12 +4937,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I102">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Multitud de personas, Tiempos de espera largos o inciertos</t>
+          <t>Multitud de personas, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4982,12 +4982,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (1.8%)</t>
         </is>
       </c>
       <c r="I103">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Multitud de personas, Tiempos de viaje largos o inciertos</t>
+          <t>Multitud de personas, Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I104">
@@ -5052,32 +5052,32 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Otro, Ninguno</t>
+          <t>Multitud de personas, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2 (11.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>7 (3.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I105">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Otro, No sabe</t>
+          <t>Multitud de personas, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5142,32 +5142,32 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Otro, Por comodidad</t>
+          <t>Otro, Ninguno</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (3.1%)</t>
         </is>
       </c>
       <c r="I107">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Otro, Sólo que me lleva fácilmente a mi lugar de trabajo</t>
+          <t>Otro, No sabe</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Otro, Todas</t>
+          <t>Otro, Por comodidad</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco</t>
+          <t>Otro, Sólo que me lleva fácilmente a mi lugar de trabajo</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>10 (4.4%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I110">
@@ -5322,12 +5322,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Dificultad para encontrar parqueadero</t>
+          <t>Otro, Todas</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>10 (4.4%)</t>
         </is>
       </c>
       <c r="I112">
@@ -5412,12 +5412,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Otro, La comodidad</t>
+          <t>Ser víctima de robo o atraco, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5427,12 +5427,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Ser víctima de situaciones de acoso o violencia</t>
+          <t>Ser víctima de robo o atraco, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I114">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia</t>
+          <t>Ser víctima de robo o atraco, Otro, La comodidad</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5517,17 +5517,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I115">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Otro, Al  coger taxi no puedo indicarle por donde voy en cambio al transporte  de plataforma la aplicación  les indica  por dónde  ir y comparto la aplicación  con mi esposo  y sabe por dónde  voy</t>
+          <t>Ser víctima de robo o atraco, Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I116">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Ser víctima de robo o atraco</t>
+          <t>Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Tiempos de viaje largos o inciertos</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Otro, Al  coger taxi no puedo indicarle por donde voy en cambio al transporte  de plataforma la aplicación  les indica  por dónde  ir y comparto la aplicación  con mi esposo  y sabe por dónde  voy</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5657,12 +5657,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I118">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de discriminación</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I119">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de discriminación, Ser víctima de robo o atraco</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos</t>
+          <t>Ser víctima de situaciones de discriminación</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5787,17 +5787,17 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>4 (4.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>16 (7.1%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I121">
@@ -5817,12 +5817,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Congestión de tráfico</t>
+          <t>Ser víctima de situaciones de discriminación, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5832,17 +5832,17 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>6 (7.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>9 (4.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I122">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Costos altos</t>
+          <t>Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5877,17 +5877,17 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>16 (7.1%)</t>
         </is>
       </c>
       <c r="I123">
@@ -5907,12 +5907,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Tiempos de espera largos o inciertos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5922,17 +5922,17 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>6 (7.0%)</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>9 (4.0%)</t>
         </is>
       </c>
       <c r="I124">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Multitud de personas</t>
+          <t>Tiempos de espera largos o inciertos, Costos altos</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5967,17 +5967,17 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2 (2.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I125">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Tiempos de viaje largos o inciertos</t>
+          <t>Tiempos de espera largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6007,22 +6007,22 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2 (11.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>5 (5.8%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>4 (1.8%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I126">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos</t>
+          <t>Tiempos de espera largos o inciertos, Multitud de personas</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6057,17 +6057,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>3 (3.5%)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>4 (8.5%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>11 (4.9%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="I127">
@@ -6087,27 +6087,27 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Congestión de tráfico</t>
+          <t>Tiempos de espera largos o inciertos, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>4 (4.7%)</t>
+          <t>5 (5.8%)</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6147,17 +6147,17 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>3 (3.5%)</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (8.5%)</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>11 (4.9%)</t>
         </is>
       </c>
       <c r="I129">
@@ -6177,12 +6177,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Multitud de personas</t>
+          <t>Tiempos de viaje largos o inciertos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6192,17 +6192,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>4 (1.8%)</t>
         </is>
       </c>
       <c r="I130">
@@ -6222,7 +6222,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Tiempos de espera largos o inciertos</t>
+          <t>Tiempos de viaje largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6237,17 +6237,17 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>1 (0.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I131">
@@ -6257,77 +6257,77 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>p29_modo_ideal_agregado</t>
+          <t>p27_situaciones_multiples</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modo ideal o soñado de movilizarse (agregado)</t>
+          <t>Situaciones múltiples que se buscó evitar</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Tiempos de viaje largos o inciertos, Multitud de personas</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>17 (81.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>5 (29.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>19 (24.4%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>26 (55.3%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>72 (41.4%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>p29_modo_ideal_agregado</t>
+          <t>p27_situaciones_multiples</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modo ideal o soñado de movilizarse (agregado)</t>
+          <t>Situaciones múltiples que se buscó evitar</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bicicleta</t>
+          <t>Tiempos de viaje largos o inciertos, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1 (1.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6337,11 +6337,11 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>7 (4.0%)</t>
+          <t>1 (0.4%)</t>
         </is>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>0.0188</v>
       </c>
     </row>
     <row r="134">
@@ -6357,32 +6357,32 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Caminar</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>18 (85.7%)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>3 (17.6%)</t>
+          <t>5 (27.8%)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>20 (23.3%)</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>26 (55.3%)</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>5 (2.9%)</t>
+          <t>73 (32.3%)</t>
         </is>
       </c>
       <c r="I134">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Bicicleta</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6412,22 +6412,22 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>7 (41.2%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>55 (70.5%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>5 (10.6%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>38 (21.8%)</t>
+          <t>7 (3.1%)</t>
         </is>
       </c>
       <c r="I135">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Caminar</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6457,22 +6457,22 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (16.7%)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1 (1.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>5 (2.2%)</t>
         </is>
       </c>
       <c r="I136">
@@ -6492,32 +6492,32 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Taxi</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (38.9%)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1 (1.3%)</t>
+          <t>55 (64.0%)</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>11 (23.4%)</t>
+          <t>5 (10.6%)</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>19 (10.9%)</t>
+          <t>38 (16.8%)</t>
         </is>
       </c>
       <c r="I137">
@@ -6537,12 +6537,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6552,17 +6552,17 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1 (1.3%)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>3 (6.4%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>31 (17.8%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="I138">
@@ -6572,17 +6572,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Condiciones físicas / salud</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6602,12 +6602,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2 (4.3%)</t>
+          <t>11 (23.4%)</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>3 (1.3%)</t>
+          <t>19 (8.4%)</t>
         </is>
       </c>
       <c r="I139">
@@ -6617,42 +6617,42 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Falta de infraestructura / distancia</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (8.1%)</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>5 (2.2%)</t>
+          <t>82 (36.3%)</t>
         </is>
       </c>
       <c r="I140">
@@ -6672,12 +6672,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Inseguridad / acoso</t>
+          <t>Condiciones físicas / salud</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6692,12 +6692,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>9 (4.0%)</t>
+          <t>3 (1.3%)</t>
         </is>
       </c>
       <c r="I141">
@@ -6717,32 +6717,32 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Limitaciones económicas</t>
+          <t>Falta de infraestructura / distancia</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>6 (33.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>15 (17.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>11 (23.4%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>81 (35.8%)</t>
+          <t>5 (2.2%)</t>
         </is>
       </c>
       <c r="I142">
@@ -6762,32 +6762,32 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Modo actual</t>
+          <t>Inseguridad / acoso</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>16 (76.2%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>5 (27.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>55 (64.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>17 (36.2%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>63 (27.9%)</t>
+          <t>9 (4.0%)</t>
         </is>
       </c>
       <c r="I143">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Limitaciones económicas</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -6817,22 +6817,22 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>5 (27.8%)</t>
+          <t>6 (33.3%)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>8 (9.3%)</t>
+          <t>15 (17.4%)</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>14 (29.8%)</t>
+          <t>11 (23.4%)</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>52 (23.0%)</t>
+          <t>81 (35.8%)</t>
         </is>
       </c>
       <c r="I144">
@@ -6852,32 +6852,32 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Tiempo / disponibilidad</t>
+          <t>Modo actual</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>16 (76.2%)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>2 (11.1%)</t>
+          <t>5 (27.8%)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>6 (7.0%)</t>
+          <t>55 (64.0%)</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>17 (36.2%)</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>13 (5.8%)</t>
+          <t>63 (27.9%)</t>
         </is>
       </c>
       <c r="I145">
@@ -6887,62 +6887,62 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Industria/Obras</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>9 (42.9%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>4 (22.2%)</t>
+          <t>5 (27.8%)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>25 (29.1%)</t>
+          <t>8 (9.3%)</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>8 (17.0%)</t>
+          <t>14 (29.8%)</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>51 (22.6%)</t>
+          <t>52 (23.0%)</t>
         </is>
       </c>
       <c r="I146">
-        <v>0.4171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Otra fuente</t>
+          <t>Tiempo / disponibilidad</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6952,26 +6952,26 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>6 (7.0%)</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2 (4.3%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>6 (2.7%)</t>
+          <t>13 (5.8%)</t>
         </is>
       </c>
       <c r="I147">
-        <v>0.4171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -6987,32 +6987,32 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Productos químicos</t>
+          <t>Industria/Obras</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>9 (42.9%)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>2 (11.1%)</t>
+          <t>4 (22.2%)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>4 (4.7%)</t>
+          <t>25 (29.1%)</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>3 (6.4%)</t>
+          <t>8 (17.0%)</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>16 (7.1%)</t>
+          <t>51 (22.6%)</t>
         </is>
       </c>
       <c r="I148">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Quema de residuos</t>
+          <t>Otra fuente</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7042,22 +7042,22 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>3 (16.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>3 (3.5%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>3 (6.4%)</t>
+          <t>2 (4.3%)</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>7 (3.1%)</t>
+          <t>6 (2.7%)</t>
         </is>
       </c>
       <c r="I149">
@@ -7077,32 +7077,32 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Vehículos motorizados</t>
+          <t>Productos químicos</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>7 (33.3%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>8 (44.4%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>42 (48.8%)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>25 (53.2%)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>111 (49.1%)</t>
+          <t>16 (7.1%)</t>
         </is>
       </c>
       <c r="I150">
@@ -7122,32 +7122,32 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Vertederos (basureros) y rellenos sanitarios</t>
+          <t>Quema de residuos</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3 (14.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>3 (16.7%)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>11 (12.8%)</t>
+          <t>3 (3.5%)</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>6 (12.8%)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>35 (15.5%)</t>
+          <t>7 (3.1%)</t>
         </is>
       </c>
       <c r="I151">
@@ -7157,91 +7157,91 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Vehículos motorizados</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>7 (33.3%)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2 (11.1%)</t>
+          <t>8 (44.4%)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>11 (12.8%)</t>
+          <t>42 (48.8%)</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>9 (19.1%)</t>
+          <t>25 (53.2%)</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>58 (25.8%)</t>
+          <t>111 (49.1%)</t>
         </is>
       </c>
       <c r="I152">
-        <v>0.1015</v>
+        <v>0.4171</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Camión</t>
+          <t>Vertederos (basureros) y rellenos sanitarios</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>6 (28.6%)</t>
+          <t>3 (14.3%)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>3 (16.7%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>21 (24.4%)</t>
+          <t>11 (12.8%)</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>18 (38.3%)</t>
+          <t>6 (12.8%)</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>41 (18.2%)</t>
+          <t>35 (15.5%)</t>
         </is>
       </c>
       <c r="I153">
-        <v>0.1015</v>
+        <v>0.4171</v>
       </c>
     </row>
     <row r="154">
@@ -7257,36 +7257,36 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>4 (19.0%)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>8 (9.3%)</t>
+          <t>13 (15.1%)</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>10 (21.3%)</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>12 (5.3%)</t>
+          <t>60 (26.5%)</t>
         </is>
       </c>
       <c r="I154">
-        <v>0.1015</v>
+        <v>0.2174</v>
       </c>
     </row>
     <row r="155">
@@ -7302,36 +7302,36 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Camión</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1 (4.8%)</t>
+          <t>4 (19.0%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2 (11.1%)</t>
+          <t>3 (16.7%)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2 (2.3%)</t>
+          <t>19 (22.1%)</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>17 (36.2%)</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>10 (4.4%)</t>
+          <t>39 (17.3%)</t>
         </is>
       </c>
       <c r="I155">
-        <v>0.1015</v>
+        <v>0.2174</v>
       </c>
     </row>
     <row r="156">
@@ -7347,126 +7347,126 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>10 (47.6%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>10 (55.6%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>44 (51.2%)</t>
+          <t>8 (9.3%)</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>18 (38.3%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>104 (46.2%)</t>
+          <t>12 (5.3%)</t>
         </is>
       </c>
       <c r="I156">
-        <v>0.1015</v>
+        <v>0.2174</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Condiciones climáticas</t>
+          <t>Otro modo</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>1 (4.8%)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>3 (16.7%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>9 (10.5%)</t>
+          <t>2 (2.3%)</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>3 (6.4%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>16 (7.1%)</t>
+          <t>10 (4.4%)</t>
         </is>
       </c>
       <c r="I157">
-        <v>0.0376</v>
+        <v>0.2174</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (47.6%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>7 (38.9%)</t>
+          <t>10 (55.6%)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>13 (15.1%)</t>
+          <t>44 (51.2%)</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>4 (8.5%)</t>
+          <t>18 (38.3%)</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>21 (9.3%)</t>
+          <t>105 (46.5%)</t>
         </is>
       </c>
       <c r="I158">
-        <v>0.0376</v>
+        <v>0.2174</v>
       </c>
     </row>
     <row r="159">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Falta de información</t>
+          <t>Condiciones climáticas</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7492,22 +7492,22 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2 (11.1%)</t>
+          <t>3 (16.7%)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>5 (5.8%)</t>
+          <t>9 (10.5%)</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>5 (10.6%)</t>
+          <t>3 (6.4%)</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>37 (16.4%)</t>
+          <t>16 (7.1%)</t>
         </is>
       </c>
       <c r="I159">
@@ -7527,32 +7527,32 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Falta de infraestructura</t>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>7 (33.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>1 (5.6%)</t>
+          <t>7 (38.9%)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>22 (25.6%)</t>
+          <t>13 (15.1%)</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>14 (29.8%)</t>
+          <t>4 (8.5%)</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>54 (23.9%)</t>
+          <t>21 (9.3%)</t>
         </is>
       </c>
       <c r="I160">
@@ -7572,32 +7572,32 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Inseguridad / violencia</t>
+          <t>Falta de información</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8 (38.1%)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>5 (27.8%)</t>
+          <t>2 (11.1%)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>33 (38.4%)</t>
+          <t>5 (5.8%)</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>20 (42.6%)</t>
+          <t>5 (10.6%)</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>87 (38.5%)</t>
+          <t>37 (16.4%)</t>
         </is>
       </c>
       <c r="I161">
@@ -7617,32 +7617,32 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Falta de infraestructura</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2 (9.5%)</t>
+          <t>7 (33.3%)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.6%)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>4 (4.7%)</t>
+          <t>22 (25.6%)</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>14 (29.8%)</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>11 (4.9%)</t>
+          <t>54 (23.9%)</t>
         </is>
       </c>
       <c r="I162">
@@ -7652,132 +7652,142 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Importancia del costo de compra</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Inseguridad / violencia</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>8 (38.1%)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>5.0 (3.2–5.0)</t>
+          <t>5 (27.8%)</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>4.5 (3.0–5.0)</t>
+          <t>33 (38.4%)</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>20 (42.6%)</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>87 (38.5%)</t>
         </is>
       </c>
       <c r="I163">
-        <v>0.5464</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Importancia del costo de uso u operación</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (9.5%)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>4.5 (3.0–5.0)</t>
+          <t>4 (4.7%)</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>4.0 (1.0–5.0)</t>
+          <t>11 (4.9%)</t>
         </is>
       </c>
       <c r="I164">
-        <v>0.0005999999999999999</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Importancia de la comodidad</t>
+          <t>Importancia del costo de compra</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>4.5 (3.2–5.0)</t>
+          <t>5.0 (3.2–5.0)</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>4.5 (3.0–5.0)</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
           <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>5.0 (4.0–5.0)</t>
-        </is>
-      </c>
       <c r="I165">
-        <v>0.0454</v>
+        <v>0.5464</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Importancia del tiempo de viaje</t>
+          <t>Importancia del costo de uso u operación</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -7787,157 +7797,157 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>5.0 (3.2–5.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>5.0 (4.2–5.0)</t>
+          <t>4.5 (3.0–5.0)</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="I166">
-        <v>0.5492</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_robo</t>
+          <t>p28_importancia_comodidad</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de robo o atraco</t>
+          <t>Importancia de la comodidad</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>4.5 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
           <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>5.0 (4.2–5.0)</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>4.5 (3.0–5.0)</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>5.0 (3.0–5.0)</t>
-        </is>
-      </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="I167">
-        <v>0.4119</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_acoso</t>
+          <t>p28_importancia_tiempo</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de acoso</t>
+          <t>Importancia del tiempo de viaje</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>5.0 (1.8–5.0)</t>
+          <t>5.0 (3.2–5.0)</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>3.0 (2.0–5.0)</t>
+          <t>5.0 (4.2–5.0)</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>4.0 (2.5–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>4.0 (2.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="I168">
-        <v>0.5327</v>
+        <v>0.5492</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>p28_importancia_discriminacion</t>
+          <t>p28_importancia_riesgo_robo</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de discriminación</t>
+          <t>Importancia del riesgo de robo o atraco</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>3.0 (1.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>3.0 (1.0–5.0)</t>
+          <t>5.0 (4.2–5.0)</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>3.0 (1.2–5.0)</t>
+          <t>4.5 (3.0–5.0)</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>4.0 (1.5–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>3.0 (1.0–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="I169">
-        <v>0.8741</v>
+        <v>0.4119</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p28_importancia_riesgo_acoso</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Importancia del nivel de emisiones</t>
+          <t>Importancia del riesgo de acoso</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7947,186 +7957,266 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>3.5 (3.0–5.0)</t>
+          <t>5.0 (1.8–5.0)</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
+          <t>3.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>4.0 (2.5–5.0)</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
           <t>4.0 (2.0–5.0)</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>4.0 (3.0–5.0)</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>4.0 (2.2–5.0)</t>
-        </is>
-      </c>
       <c r="I170">
-        <v>0.8134</v>
+        <v>0.5327</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p28_importancia_discriminacion</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Importancia de la siniestralidad vial</t>
+          <t>Importancia del riesgo de discriminación</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>4.0 (2.0–5.0)</t>
+          <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>4.5 (3.0–5.0)</t>
+          <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3.0 (1.2–5.0)</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>4.0 (1.5–5.0)</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="I171">
-        <v>0.3572</v>
+        <v>0.8741</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p28_importancia_emisiones</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nivel percibido de contaminación (escala Likert)</t>
+          <t>Importancia del nivel de emisiones</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>1.0 (1.0–3.0)</t>
+          <t>3.5 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>3.0 (2.0–3.0)</t>
+          <t>4.0 (2.0–5.0)</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (2.2–5.0)</t>
         </is>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>0.8134</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p28_importancia_siniestralidad</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+          <t>Importancia de la siniestralidad vial</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2.5 (2.0–3.0)</t>
+          <t>4.0 (2.0–5.0)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>3.0 (3.0–3.8)</t>
+          <t>4.5 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>3.0 (2.5–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="I173">
-        <v>0.5352</v>
+        <v>0.3572</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>p32_contaminacion_likert</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Nivel percibido de contaminación (escala Likert)</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–3.0)</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>p36_influencia_amigos</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–2.0)</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–4.8)</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I175">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
           <t>p37_influencia_familia</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Influencia de la familia en la elección del transporte (Likert 1-5)</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>3.0 (2.8–3.0)</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>4.0 (3.0–4.0)</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>3.0 (2.0–4.0)</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>3.5 (3.0–4.0)</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>3.0 (3.0–4.0)</t>
-        </is>
-      </c>
-      <c r="I174">
-        <v>0.0745</v>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>3.5 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I176">
+        <v>0.0458</v>
       </c>
     </row>
   </sheetData>
